--- a/bots/crawl_ch/output/bread_coop_2023-01-21.xlsx
+++ b/bots/crawl_ch/output/bread_coop_2023-01-21.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O394"/>
+  <dimension ref="A1:O395"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -575,7 +575,7 @@
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -648,7 +648,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -721,7 +721,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -867,7 +867,7 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -940,7 +940,7 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -1009,7 +1009,7 @@
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -1078,7 +1078,7 @@
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -1151,7 +1151,7 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -1224,7 +1224,7 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -1370,7 +1370,7 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -1443,7 +1443,7 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -1512,7 +1512,7 @@
       <c r="N15" t="inlineStr"/>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -1581,7 +1581,7 @@
       <c r="N16" t="inlineStr"/>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -1650,7 +1650,7 @@
       <c r="N17" t="inlineStr"/>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -1723,7 +1723,7 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -1792,7 +1792,7 @@
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -1861,7 +1861,7 @@
       <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -1934,7 +1934,7 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -2003,7 +2003,7 @@
       <c r="N22" t="inlineStr"/>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -2076,7 +2076,7 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -2149,7 +2149,7 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -2218,7 +2218,7 @@
       <c r="N25" t="inlineStr"/>
       <c r="O25" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -2291,7 +2291,7 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -2364,7 +2364,7 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -2433,7 +2433,7 @@
       <c r="N28" t="inlineStr"/>
       <c r="O28" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -2506,7 +2506,7 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -2575,7 +2575,7 @@
       <c r="N30" t="inlineStr"/>
       <c r="O30" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -2644,7 +2644,7 @@
       <c r="N31" t="inlineStr"/>
       <c r="O31" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -2717,7 +2717,7 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -2786,7 +2786,7 @@
       <c r="N33" t="inlineStr"/>
       <c r="O33" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -2855,7 +2855,7 @@
       <c r="N34" t="inlineStr"/>
       <c r="O34" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -2928,7 +2928,7 @@
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -3001,7 +3001,7 @@
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -3070,7 +3070,7 @@
       <c r="N37" t="inlineStr"/>
       <c r="O37" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -3139,7 +3139,7 @@
       <c r="N38" t="inlineStr"/>
       <c r="O38" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -3208,7 +3208,7 @@
       <c r="N39" t="inlineStr"/>
       <c r="O39" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -3277,7 +3277,7 @@
       <c r="N40" t="inlineStr"/>
       <c r="O40" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -3350,7 +3350,7 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -3423,7 +3423,7 @@
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -3496,7 +3496,7 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -3565,7 +3565,7 @@
       <c r="N44" t="inlineStr"/>
       <c r="O44" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -3638,7 +3638,7 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -3711,7 +3711,7 @@
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -3780,7 +3780,7 @@
       <c r="N47" t="inlineStr"/>
       <c r="O47" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -3853,7 +3853,7 @@
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -3926,7 +3926,7 @@
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -3999,7 +3999,7 @@
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -4068,7 +4068,7 @@
       <c r="N51" t="inlineStr"/>
       <c r="O51" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -4141,7 +4141,7 @@
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -4214,7 +4214,7 @@
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -4287,7 +4287,7 @@
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -4360,7 +4360,7 @@
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -4433,7 +4433,7 @@
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -4506,7 +4506,7 @@
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -4579,7 +4579,7 @@
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -4648,7 +4648,7 @@
       <c r="N59" t="inlineStr"/>
       <c r="O59" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -4721,7 +4721,7 @@
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -4790,7 +4790,7 @@
       <c r="N61" t="inlineStr"/>
       <c r="O61" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -4859,7 +4859,7 @@
       <c r="N62" t="inlineStr"/>
       <c r="O62" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -4932,7 +4932,7 @@
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -5005,7 +5005,7 @@
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -5078,7 +5078,7 @@
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -5151,7 +5151,7 @@
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -5224,7 +5224,7 @@
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -5297,7 +5297,7 @@
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -5370,7 +5370,7 @@
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -5443,7 +5443,7 @@
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -5516,7 +5516,7 @@
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -5589,7 +5589,7 @@
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -5658,7 +5658,7 @@
       <c r="N73" t="inlineStr"/>
       <c r="O73" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -5731,7 +5731,7 @@
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -5800,7 +5800,7 @@
       <c r="N75" t="inlineStr"/>
       <c r="O75" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -5869,7 +5869,7 @@
       <c r="N76" t="inlineStr"/>
       <c r="O76" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -5942,7 +5942,7 @@
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -6011,7 +6011,7 @@
       <c r="N78" t="inlineStr"/>
       <c r="O78" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -6084,7 +6084,7 @@
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -6157,7 +6157,7 @@
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -6230,7 +6230,7 @@
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -6299,7 +6299,7 @@
       <c r="N82" t="inlineStr"/>
       <c r="O82" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -6368,7 +6368,7 @@
       <c r="N83" t="inlineStr"/>
       <c r="O83" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -6441,7 +6441,7 @@
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -6510,7 +6510,7 @@
       <c r="N85" t="inlineStr"/>
       <c r="O85" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -6583,7 +6583,7 @@
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -6652,7 +6652,7 @@
       <c r="N87" t="inlineStr"/>
       <c r="O87" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -6725,7 +6725,7 @@
       </c>
       <c r="O88" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -6798,7 +6798,7 @@
       </c>
       <c r="O89" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -6867,7 +6867,7 @@
       <c r="N90" t="inlineStr"/>
       <c r="O90" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -6936,7 +6936,7 @@
       <c r="N91" t="inlineStr"/>
       <c r="O91" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -7009,7 +7009,7 @@
       </c>
       <c r="O92" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -7082,7 +7082,7 @@
       </c>
       <c r="O93" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -7155,7 +7155,7 @@
       </c>
       <c r="O94" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -7228,7 +7228,7 @@
       </c>
       <c r="O95" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -7301,7 +7301,7 @@
       </c>
       <c r="O96" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -7374,7 +7374,7 @@
       </c>
       <c r="O97" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -7447,7 +7447,7 @@
       </c>
       <c r="O98" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -7516,7 +7516,7 @@
       <c r="N99" t="inlineStr"/>
       <c r="O99" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -7589,7 +7589,7 @@
       </c>
       <c r="O100" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -7662,7 +7662,7 @@
       </c>
       <c r="O101" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -7735,7 +7735,7 @@
       </c>
       <c r="O102" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -7800,7 +7800,7 @@
       <c r="N103" t="inlineStr"/>
       <c r="O103" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -7869,7 +7869,7 @@
       <c r="N104" t="inlineStr"/>
       <c r="O104" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -7938,7 +7938,7 @@
       <c r="N105" t="inlineStr"/>
       <c r="O105" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -8007,7 +8007,7 @@
       <c r="N106" t="inlineStr"/>
       <c r="O106" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -8076,7 +8076,7 @@
       <c r="N107" t="inlineStr"/>
       <c r="O107" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -8145,7 +8145,7 @@
       <c r="N108" t="inlineStr"/>
       <c r="O108" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -8218,7 +8218,7 @@
       </c>
       <c r="O109" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -8291,7 +8291,7 @@
       </c>
       <c r="O110" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -8360,7 +8360,7 @@
       <c r="N111" t="inlineStr"/>
       <c r="O111" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -8433,7 +8433,7 @@
       </c>
       <c r="O112" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -8506,7 +8506,7 @@
       </c>
       <c r="O113" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -8575,7 +8575,7 @@
       <c r="N114" t="inlineStr"/>
       <c r="O114" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -8644,7 +8644,7 @@
       <c r="N115" t="inlineStr"/>
       <c r="O115" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -8713,7 +8713,7 @@
       <c r="N116" t="inlineStr"/>
       <c r="O116" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -8786,7 +8786,7 @@
       </c>
       <c r="O117" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -8859,7 +8859,7 @@
       </c>
       <c r="O118" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -8928,7 +8928,7 @@
       <c r="N119" t="inlineStr"/>
       <c r="O119" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -9001,7 +9001,7 @@
       </c>
       <c r="O120" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -9074,7 +9074,7 @@
       </c>
       <c r="O121" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -9147,7 +9147,7 @@
       </c>
       <c r="O122" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -9220,7 +9220,7 @@
       </c>
       <c r="O123" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -9289,7 +9289,7 @@
       <c r="N124" t="inlineStr"/>
       <c r="O124" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -9362,7 +9362,7 @@
       </c>
       <c r="O125" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -9435,7 +9435,7 @@
       </c>
       <c r="O126" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -9504,7 +9504,7 @@
       <c r="N127" t="inlineStr"/>
       <c r="O127" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -9573,7 +9573,7 @@
       <c r="N128" t="inlineStr"/>
       <c r="O128" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -9642,7 +9642,7 @@
       <c r="N129" t="inlineStr"/>
       <c r="O129" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -9715,7 +9715,7 @@
       </c>
       <c r="O130" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -9788,7 +9788,7 @@
       </c>
       <c r="O131" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -9857,7 +9857,7 @@
       <c r="N132" t="inlineStr"/>
       <c r="O132" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -9930,7 +9930,7 @@
       </c>
       <c r="O133" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -10003,7 +10003,7 @@
       </c>
       <c r="O134" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -10072,7 +10072,7 @@
       <c r="N135" t="inlineStr"/>
       <c r="O135" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -10145,7 +10145,7 @@
       </c>
       <c r="O136" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -10218,7 +10218,7 @@
       </c>
       <c r="O137" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -10287,7 +10287,7 @@
       <c r="N138" t="inlineStr"/>
       <c r="O138" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -10356,7 +10356,7 @@
       <c r="N139" t="inlineStr"/>
       <c r="O139" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -10425,7 +10425,7 @@
       <c r="N140" t="inlineStr"/>
       <c r="O140" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -10494,7 +10494,7 @@
       <c r="N141" t="inlineStr"/>
       <c r="O141" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -10567,7 +10567,7 @@
       </c>
       <c r="O142" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -10636,7 +10636,7 @@
       <c r="N143" t="inlineStr"/>
       <c r="O143" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -10709,7 +10709,7 @@
       </c>
       <c r="O144" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -10778,7 +10778,7 @@
       <c r="N145" t="inlineStr"/>
       <c r="O145" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -10847,7 +10847,7 @@
       <c r="N146" t="inlineStr"/>
       <c r="O146" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -10916,7 +10916,7 @@
       <c r="N147" t="inlineStr"/>
       <c r="O147" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -10989,7 +10989,7 @@
       </c>
       <c r="O148" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -11058,7 +11058,7 @@
       <c r="N149" t="inlineStr"/>
       <c r="O149" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -11131,7 +11131,7 @@
       </c>
       <c r="O150" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -11200,7 +11200,7 @@
       <c r="N151" t="inlineStr"/>
       <c r="O151" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -11273,7 +11273,7 @@
       </c>
       <c r="O152" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -11342,7 +11342,7 @@
       <c r="N153" t="inlineStr"/>
       <c r="O153" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -11415,7 +11415,7 @@
       </c>
       <c r="O154" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -11484,7 +11484,7 @@
       <c r="N155" t="inlineStr"/>
       <c r="O155" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -11553,7 +11553,7 @@
       <c r="N156" t="inlineStr"/>
       <c r="O156" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -11622,7 +11622,7 @@
       <c r="N157" t="inlineStr"/>
       <c r="O157" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -11695,7 +11695,7 @@
       </c>
       <c r="O158" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -11764,7 +11764,7 @@
       <c r="N159" t="inlineStr"/>
       <c r="O159" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -11833,7 +11833,7 @@
       <c r="N160" t="inlineStr"/>
       <c r="O160" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -11902,7 +11902,7 @@
       <c r="N161" t="inlineStr"/>
       <c r="O161" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -11975,7 +11975,7 @@
       </c>
       <c r="O162" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -12048,7 +12048,7 @@
       </c>
       <c r="O163" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -12121,7 +12121,7 @@
       </c>
       <c r="O164" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -12194,7 +12194,7 @@
       </c>
       <c r="O165" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -12263,7 +12263,7 @@
       <c r="N166" t="inlineStr"/>
       <c r="O166" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -12332,7 +12332,7 @@
       <c r="N167" t="inlineStr"/>
       <c r="O167" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -12401,7 +12401,7 @@
       <c r="N168" t="inlineStr"/>
       <c r="O168" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -12474,7 +12474,7 @@
       </c>
       <c r="O169" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -12547,7 +12547,7 @@
       </c>
       <c r="O170" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -12620,7 +12620,7 @@
       </c>
       <c r="O171" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -12689,7 +12689,7 @@
       <c r="N172" t="inlineStr"/>
       <c r="O172" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -12762,7 +12762,7 @@
       </c>
       <c r="O173" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -12831,7 +12831,7 @@
       <c r="N174" t="inlineStr"/>
       <c r="O174" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -12904,7 +12904,7 @@
       </c>
       <c r="O175" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -12973,7 +12973,7 @@
       <c r="N176" t="inlineStr"/>
       <c r="O176" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -13042,7 +13042,7 @@
       <c r="N177" t="inlineStr"/>
       <c r="O177" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -13115,7 +13115,7 @@
       </c>
       <c r="O178" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -13184,7 +13184,7 @@
       <c r="N179" t="inlineStr"/>
       <c r="O179" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -13257,7 +13257,7 @@
       </c>
       <c r="O180" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -13326,7 +13326,7 @@
       <c r="N181" t="inlineStr"/>
       <c r="O181" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -13399,7 +13399,7 @@
       </c>
       <c r="O182" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -13472,7 +13472,7 @@
       </c>
       <c r="O183" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -13545,7 +13545,7 @@
       </c>
       <c r="O184" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -13614,7 +13614,7 @@
       <c r="N185" t="inlineStr"/>
       <c r="O185" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -13687,7 +13687,7 @@
       </c>
       <c r="O186" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -13756,7 +13756,7 @@
       <c r="N187" t="inlineStr"/>
       <c r="O187" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -13825,7 +13825,7 @@
       <c r="N188" t="inlineStr"/>
       <c r="O188" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -13894,7 +13894,7 @@
       <c r="N189" t="inlineStr"/>
       <c r="O189" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -13963,7 +13963,7 @@
       <c r="N190" t="inlineStr"/>
       <c r="O190" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -14036,7 +14036,7 @@
       </c>
       <c r="O191" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -14109,7 +14109,7 @@
       </c>
       <c r="O192" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -14182,7 +14182,7 @@
       </c>
       <c r="O193" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -14251,7 +14251,7 @@
       <c r="N194" t="inlineStr"/>
       <c r="O194" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -14324,7 +14324,7 @@
       </c>
       <c r="O195" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -14393,7 +14393,7 @@
       <c r="N196" t="inlineStr"/>
       <c r="O196" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -14462,7 +14462,7 @@
       <c r="N197" t="inlineStr"/>
       <c r="O197" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -14535,7 +14535,7 @@
       </c>
       <c r="O198" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -14604,7 +14604,7 @@
       <c r="N199" t="inlineStr"/>
       <c r="O199" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -14677,7 +14677,7 @@
       </c>
       <c r="O200" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -14750,7 +14750,7 @@
       </c>
       <c r="O201" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -14823,7 +14823,7 @@
       </c>
       <c r="O202" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -14896,7 +14896,7 @@
       </c>
       <c r="O203" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -14965,7 +14965,7 @@
       <c r="N204" t="inlineStr"/>
       <c r="O204" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -15038,7 +15038,7 @@
       </c>
       <c r="O205" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -15107,7 +15107,7 @@
       <c r="N206" t="inlineStr"/>
       <c r="O206" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -15180,7 +15180,7 @@
       </c>
       <c r="O207" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -15253,7 +15253,7 @@
       </c>
       <c r="O208" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -15322,7 +15322,7 @@
       <c r="N209" t="inlineStr"/>
       <c r="O209" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -15391,7 +15391,7 @@
       <c r="N210" t="inlineStr"/>
       <c r="O210" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -15460,7 +15460,7 @@
       <c r="N211" t="inlineStr"/>
       <c r="O211" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -15529,7 +15529,7 @@
       <c r="N212" t="inlineStr"/>
       <c r="O212" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -15602,7 +15602,7 @@
       </c>
       <c r="O213" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -15675,7 +15675,7 @@
       </c>
       <c r="O214" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -15748,7 +15748,7 @@
       </c>
       <c r="O215" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -15821,7 +15821,7 @@
       </c>
       <c r="O216" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -15890,7 +15890,7 @@
       <c r="N217" t="inlineStr"/>
       <c r="O217" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -15963,7 +15963,7 @@
       </c>
       <c r="O218" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -16032,7 +16032,7 @@
       <c r="N219" t="inlineStr"/>
       <c r="O219" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -16101,7 +16101,7 @@
       <c r="N220" t="inlineStr"/>
       <c r="O220" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -16174,7 +16174,7 @@
       </c>
       <c r="O221" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -16243,7 +16243,7 @@
       <c r="N222" t="inlineStr"/>
       <c r="O222" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -16312,7 +16312,7 @@
       <c r="N223" t="inlineStr"/>
       <c r="O223" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -16381,7 +16381,7 @@
       <c r="N224" t="inlineStr"/>
       <c r="O224" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -16454,7 +16454,7 @@
       </c>
       <c r="O225" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -16527,7 +16527,7 @@
       </c>
       <c r="O226" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -16596,7 +16596,7 @@
       <c r="N227" t="inlineStr"/>
       <c r="O227" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -16665,7 +16665,7 @@
       <c r="N228" t="inlineStr"/>
       <c r="O228" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -16734,7 +16734,7 @@
       <c r="N229" t="inlineStr"/>
       <c r="O229" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -16807,7 +16807,7 @@
       </c>
       <c r="O230" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -16876,7 +16876,7 @@
       <c r="N231" t="inlineStr"/>
       <c r="O231" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -16945,7 +16945,7 @@
       <c r="N232" t="inlineStr"/>
       <c r="O232" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -17014,7 +17014,7 @@
       <c r="N233" t="inlineStr"/>
       <c r="O233" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -17083,7 +17083,7 @@
       <c r="N234" t="inlineStr"/>
       <c r="O234" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -17152,7 +17152,7 @@
       <c r="N235" t="inlineStr"/>
       <c r="O235" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -17225,7 +17225,7 @@
       </c>
       <c r="O236" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -17294,7 +17294,7 @@
       <c r="N237" t="inlineStr"/>
       <c r="O237" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -17363,7 +17363,7 @@
       <c r="N238" t="inlineStr"/>
       <c r="O238" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -17432,7 +17432,7 @@
       <c r="N239" t="inlineStr"/>
       <c r="O239" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -17501,7 +17501,7 @@
       <c r="N240" t="inlineStr"/>
       <c r="O240" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -17574,7 +17574,7 @@
       </c>
       <c r="O241" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -17647,7 +17647,7 @@
       </c>
       <c r="O242" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -17720,7 +17720,7 @@
       </c>
       <c r="O243" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -17791,7 +17791,7 @@
       </c>
       <c r="O244" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -17864,7 +17864,7 @@
       </c>
       <c r="O245" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -17937,7 +17937,7 @@
       </c>
       <c r="O246" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -18000,13 +18000,13 @@
       </c>
       <c r="M247" t="inlineStr">
         <is>
-          <t>Pasquier Pitch Choco Barre Lait - Online kein Bestand 5.20 Schweizer Franken</t>
+          <t>Pasquier Pitch Choco Barre Lait 5.20 Schweizer Franken</t>
         </is>
       </c>
       <c r="N247" t="inlineStr"/>
       <c r="O247" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -18075,7 +18075,7 @@
       <c r="N248" t="inlineStr"/>
       <c r="O248" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -18144,7 +18144,7 @@
       <c r="N249" t="inlineStr"/>
       <c r="O249" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -18211,7 +18211,7 @@
       <c r="N250" t="inlineStr"/>
       <c r="O250" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -18280,7 +18280,7 @@
       <c r="N251" t="inlineStr"/>
       <c r="O251" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -18349,7 +18349,7 @@
       <c r="N252" t="inlineStr"/>
       <c r="O252" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -18422,7 +18422,7 @@
       </c>
       <c r="O253" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -18491,7 +18491,7 @@
       <c r="N254" t="inlineStr"/>
       <c r="O254" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -18560,7 +18560,7 @@
       <c r="N255" t="inlineStr"/>
       <c r="O255" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -18629,7 +18629,7 @@
       <c r="N256" t="inlineStr"/>
       <c r="O256" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -18698,7 +18698,7 @@
       <c r="N257" t="inlineStr"/>
       <c r="O257" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -18767,7 +18767,7 @@
       <c r="N258" t="inlineStr"/>
       <c r="O258" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -18836,7 +18836,7 @@
       <c r="N259" t="inlineStr"/>
       <c r="O259" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -18905,7 +18905,7 @@
       <c r="N260" t="inlineStr"/>
       <c r="O260" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -18978,7 +18978,7 @@
       </c>
       <c r="O261" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -19051,7 +19051,7 @@
       </c>
       <c r="O262" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -19124,7 +19124,7 @@
       </c>
       <c r="O263" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -19193,7 +19193,7 @@
       <c r="N264" t="inlineStr"/>
       <c r="O264" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -19266,7 +19266,7 @@
       </c>
       <c r="O265" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -19339,7 +19339,7 @@
       </c>
       <c r="O266" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -19412,7 +19412,7 @@
       </c>
       <c r="O267" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -19485,7 +19485,7 @@
       </c>
       <c r="O268" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -19558,7 +19558,7 @@
       </c>
       <c r="O269" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -19627,7 +19627,7 @@
       <c r="N270" t="inlineStr"/>
       <c r="O270" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -19700,7 +19700,7 @@
       </c>
       <c r="O271" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -19773,7 +19773,7 @@
       </c>
       <c r="O272" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -19842,7 +19842,7 @@
       <c r="N273" t="inlineStr"/>
       <c r="O273" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -19913,7 +19913,7 @@
       </c>
       <c r="O274" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -19982,7 +19982,7 @@
       <c r="N275" t="inlineStr"/>
       <c r="O275" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -20051,7 +20051,7 @@
       <c r="N276" t="inlineStr"/>
       <c r="O276" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -20120,7 +20120,7 @@
       <c r="N277" t="inlineStr"/>
       <c r="O277" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -20193,7 +20193,7 @@
       </c>
       <c r="O278" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -20266,7 +20266,7 @@
       </c>
       <c r="O279" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -20335,7 +20335,7 @@
       <c r="N280" t="inlineStr"/>
       <c r="O280" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -20404,7 +20404,7 @@
       <c r="N281" t="inlineStr"/>
       <c r="O281" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -20473,7 +20473,7 @@
       <c r="N282" t="inlineStr"/>
       <c r="O282" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -20542,7 +20542,7 @@
       <c r="N283" t="inlineStr"/>
       <c r="O283" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -20611,7 +20611,7 @@
       <c r="N284" t="inlineStr"/>
       <c r="O284" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -20684,7 +20684,7 @@
       </c>
       <c r="O285" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -20751,7 +20751,7 @@
       <c r="N286" t="inlineStr"/>
       <c r="O286" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -20824,7 +20824,7 @@
       </c>
       <c r="O287" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -20897,7 +20897,7 @@
       </c>
       <c r="O288" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -20970,7 +20970,7 @@
       </c>
       <c r="O289" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -21039,7 +21039,7 @@
       <c r="N290" t="inlineStr"/>
       <c r="O290" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -21108,7 +21108,7 @@
       <c r="N291" t="inlineStr"/>
       <c r="O291" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -21181,7 +21181,7 @@
       </c>
       <c r="O292" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -21248,7 +21248,7 @@
       <c r="N293" t="inlineStr"/>
       <c r="O293" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -21321,7 +21321,7 @@
       </c>
       <c r="O294" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -21394,7 +21394,7 @@
       </c>
       <c r="O295" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -21467,7 +21467,7 @@
       </c>
       <c r="O296" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -21536,7 +21536,7 @@
       <c r="N297" t="inlineStr"/>
       <c r="O297" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -21605,7 +21605,7 @@
       <c r="N298" t="inlineStr"/>
       <c r="O298" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -21674,7 +21674,7 @@
       <c r="N299" t="inlineStr"/>
       <c r="O299" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -21743,7 +21743,7 @@
       <c r="N300" t="inlineStr"/>
       <c r="O300" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -21812,7 +21812,7 @@
       <c r="N301" t="inlineStr"/>
       <c r="O301" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -21881,7 +21881,7 @@
       <c r="N302" t="inlineStr"/>
       <c r="O302" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -21954,7 +21954,7 @@
       </c>
       <c r="O303" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -22023,7 +22023,7 @@
       <c r="N304" t="inlineStr"/>
       <c r="O304" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -22092,7 +22092,7 @@
       <c r="N305" t="inlineStr"/>
       <c r="O305" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -22165,7 +22165,7 @@
       </c>
       <c r="O306" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -22238,7 +22238,7 @@
       </c>
       <c r="O307" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -22307,7 +22307,7 @@
       <c r="N308" t="inlineStr"/>
       <c r="O308" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -22376,7 +22376,7 @@
       <c r="N309" t="inlineStr"/>
       <c r="O309" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -22445,7 +22445,7 @@
       <c r="N310" t="inlineStr"/>
       <c r="O310" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -22514,7 +22514,7 @@
       <c r="N311" t="inlineStr"/>
       <c r="O311" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -22583,7 +22583,7 @@
       <c r="N312" t="inlineStr"/>
       <c r="O312" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -22652,7 +22652,7 @@
       <c r="N313" t="inlineStr"/>
       <c r="O313" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -22721,7 +22721,7 @@
       <c r="N314" t="inlineStr"/>
       <c r="O314" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -22790,7 +22790,7 @@
       <c r="N315" t="inlineStr"/>
       <c r="O315" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -22859,7 +22859,7 @@
       <c r="N316" t="inlineStr"/>
       <c r="O316" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -22928,7 +22928,7 @@
       <c r="N317" t="inlineStr"/>
       <c r="O317" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -23001,7 +23001,7 @@
       </c>
       <c r="O318" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -23070,7 +23070,7 @@
       <c r="N319" t="inlineStr"/>
       <c r="O319" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -23143,7 +23143,7 @@
       </c>
       <c r="O320" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -23216,7 +23216,7 @@
       </c>
       <c r="O321" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -23289,7 +23289,7 @@
       </c>
       <c r="O322" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -23358,7 +23358,7 @@
       <c r="N323" t="inlineStr"/>
       <c r="O323" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -23427,7 +23427,7 @@
       <c r="N324" t="inlineStr"/>
       <c r="O324" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -23500,7 +23500,7 @@
       </c>
       <c r="O325" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -23569,7 +23569,7 @@
       <c r="N326" t="inlineStr"/>
       <c r="O326" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -23642,7 +23642,7 @@
       </c>
       <c r="O327" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -23709,7 +23709,7 @@
       <c r="N328" t="inlineStr"/>
       <c r="O328" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -23778,7 +23778,7 @@
       <c r="N329" t="inlineStr"/>
       <c r="O329" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -23847,7 +23847,7 @@
       <c r="N330" t="inlineStr"/>
       <c r="O330" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -23916,7 +23916,7 @@
       <c r="N331" t="inlineStr"/>
       <c r="O331" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -23985,7 +23985,7 @@
       <c r="N332" t="inlineStr"/>
       <c r="O332" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -24054,7 +24054,7 @@
       <c r="N333" t="inlineStr"/>
       <c r="O333" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -24123,7 +24123,7 @@
       <c r="N334" t="inlineStr"/>
       <c r="O334" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -24192,7 +24192,7 @@
       <c r="N335" t="inlineStr"/>
       <c r="O335" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -24261,7 +24261,7 @@
       <c r="N336" t="inlineStr"/>
       <c r="O336" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -24330,7 +24330,7 @@
       <c r="N337" t="inlineStr"/>
       <c r="O337" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -24399,7 +24399,7 @@
       <c r="N338" t="inlineStr"/>
       <c r="O338" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -24468,7 +24468,7 @@
       <c r="N339" t="inlineStr"/>
       <c r="O339" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -24537,7 +24537,7 @@
       <c r="N340" t="inlineStr"/>
       <c r="O340" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -24606,7 +24606,7 @@
       <c r="N341" t="inlineStr"/>
       <c r="O341" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -24675,7 +24675,7 @@
       <c r="N342" t="inlineStr"/>
       <c r="O342" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -24742,7 +24742,7 @@
       <c r="N343" t="inlineStr"/>
       <c r="O343" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -24811,7 +24811,7 @@
       <c r="N344" t="inlineStr"/>
       <c r="O344" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -24882,7 +24882,7 @@
       </c>
       <c r="O345" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -24949,7 +24949,7 @@
       <c r="N346" t="inlineStr"/>
       <c r="O346" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -25018,7 +25018,7 @@
       <c r="N347" t="inlineStr"/>
       <c r="O347" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -25091,7 +25091,7 @@
       </c>
       <c r="O348" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -25160,7 +25160,7 @@
       <c r="N349" t="inlineStr"/>
       <c r="O349" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -25229,7 +25229,7 @@
       <c r="N350" t="inlineStr"/>
       <c r="O350" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -25302,7 +25302,7 @@
       </c>
       <c r="O351" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -25371,7 +25371,7 @@
       <c r="N352" t="inlineStr"/>
       <c r="O352" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -25440,7 +25440,7 @@
       <c r="N353" t="inlineStr"/>
       <c r="O353" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -25509,7 +25509,7 @@
       <c r="N354" t="inlineStr"/>
       <c r="O354" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
@@ -25582,24 +25582,24 @@
       </c>
       <c r="O355" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>7038624</t>
+          <t>6798608</t>
         </is>
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>Riduto Crisp Bread Rande</t>
+          <t>Naturaplan Bio Birnweggen 4x60g</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/riduto-crisp-bread-rande/p/7038624</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/naturaplan-bio-birnweggen-4x60g/p/6798608</t>
         </is>
       </c>
       <c r="D356" t="inlineStr"/>
@@ -25608,17 +25608,17 @@
       </c>
       <c r="F356" t="inlineStr">
         <is>
-          <t>RIDUTO</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G356" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>2.85</t>
         </is>
       </c>
       <c r="H356" t="inlineStr">
         <is>
-          <t>2.27/100g</t>
+          <t>1.19/100g</t>
         </is>
       </c>
       <c r="I356" t="inlineStr">
@@ -25628,7 +25628,7 @@
       </c>
       <c r="J356" t="inlineStr">
         <is>
-          <t>2.27</t>
+          <t>1.19</t>
         </is>
       </c>
       <c r="K356" t="inlineStr">
@@ -25638,56 +25638,54 @@
       </c>
       <c r="L356" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M356" t="inlineStr">
         <is>
-          <t>Riduto Crisp Bread Rande 2.95 Schweizer Franken</t>
+          <t>Naturaplan Bio Birnweggen 4x60g 25% Aktion 2.85 Schweizer Franken statt 3.80 Schweizer Franken</t>
         </is>
       </c>
       <c r="N356" t="inlineStr"/>
       <c r="O356" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>3465424</t>
+          <t>7038624</t>
         </is>
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>Hug Tartelettes-Bödeli 175G</t>
+          <t>Riduto Crisp Bread Rande</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/tortenboden-pastetli/hug-tartelettes-boedeli-175g/p/3465424</t>
-        </is>
-      </c>
-      <c r="D357" t="n">
-        <v>8</v>
-      </c>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/riduto-crisp-bread-rande/p/7038624</t>
+        </is>
+      </c>
+      <c r="D357" t="inlineStr"/>
       <c r="E357" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="F357" t="inlineStr">
         <is>
-          <t>Hug</t>
+          <t>RIDUTO</t>
         </is>
       </c>
       <c r="G357" t="inlineStr">
         <is>
-          <t>3.80</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H357" t="inlineStr">
         <is>
-          <t>2.17/100g</t>
+          <t>2.27/100g</t>
         </is>
       </c>
       <c r="I357" t="inlineStr">
@@ -25697,7 +25695,7 @@
       </c>
       <c r="J357" t="inlineStr">
         <is>
-          <t>2.17</t>
+          <t>2.27</t>
         </is>
       </c>
       <c r="K357" t="inlineStr">
@@ -25707,56 +25705,56 @@
       </c>
       <c r="L357" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'tortenboden-pastetli']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
         </is>
       </c>
       <c r="M357" t="inlineStr">
         <is>
-          <t>Hug Tartelettes-Bödeli 175G 3.80 Schweizer Franken</t>
+          <t>Riduto Crisp Bread Rande 2.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N357" t="inlineStr"/>
       <c r="O357" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>3040214</t>
+          <t>3465424</t>
         </is>
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>Bündner Nusstorte</t>
+          <t>Hug Tartelettes-Bödeli 175G</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/buendner-nusstorte/p/3040214</t>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/tortenboden-pastetli/hug-tartelettes-boedeli-175g/p/3465424</t>
         </is>
       </c>
       <c r="D358" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E358" t="n">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="F358" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Hug</t>
         </is>
       </c>
       <c r="G358" t="inlineStr">
         <is>
-          <t>5.95</t>
+          <t>3.80</t>
         </is>
       </c>
       <c r="H358" t="inlineStr">
         <is>
-          <t>1.70/100g</t>
+          <t>2.17/100g</t>
         </is>
       </c>
       <c r="I358" t="inlineStr">
@@ -25766,7 +25764,7 @@
       </c>
       <c r="J358" t="inlineStr">
         <is>
-          <t>1.70</t>
+          <t>2.17</t>
         </is>
       </c>
       <c r="K358" t="inlineStr">
@@ -25776,56 +25774,56 @@
       </c>
       <c r="L358" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'tortenboden-pastetli']</t>
         </is>
       </c>
       <c r="M358" t="inlineStr">
         <is>
-          <t>Bündner Nusstorte 5.95 Schweizer Franken</t>
+          <t>Hug Tartelettes-Bödeli 175G 3.80 Schweizer Franken</t>
         </is>
       </c>
       <c r="N358" t="inlineStr"/>
       <c r="O358" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>6857773</t>
+          <t>3040214</t>
         </is>
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>Dar-Vida Choco au lait</t>
+          <t>Bündner Nusstorte</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/suess/dar-vida-choco-au-lait/p/6857773</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/buendner-nusstorte/p/3040214</t>
         </is>
       </c>
       <c r="D359" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="E359" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F359" t="inlineStr">
         <is>
-          <t>DAR-VIDA</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G359" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>5.95</t>
         </is>
       </c>
       <c r="H359" t="inlineStr">
         <is>
-          <t>3.80/100g</t>
+          <t>1.70/100g</t>
         </is>
       </c>
       <c r="I359" t="inlineStr">
@@ -25835,7 +25833,7 @@
       </c>
       <c r="J359" t="inlineStr">
         <is>
-          <t>3.80</t>
+          <t>1.70</t>
         </is>
       </c>
       <c r="K359" t="inlineStr">
@@ -25845,56 +25843,56 @@
       </c>
       <c r="L359" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'suess']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M359" t="inlineStr">
         <is>
-          <t>Dar-Vida Choco au lait 1.75 Schweizer Franken</t>
+          <t>Bündner Nusstorte 5.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N359" t="inlineStr"/>
       <c r="O359" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>6775942</t>
+          <t>6857773</t>
         </is>
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>Mezeast Chicken Shawarma Wrap Kit</t>
+          <t>Dar-Vida Choco au lait</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/mezeast-chicken-shawarma-wrap-kit/p/6775942</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/suess/dar-vida-choco-au-lait/p/6857773</t>
         </is>
       </c>
       <c r="D360" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E360" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="F360" t="inlineStr">
         <is>
-          <t>MEZEAST</t>
+          <t>DAR-VIDA</t>
         </is>
       </c>
       <c r="G360" t="inlineStr">
         <is>
-          <t>6.95</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="H360" t="inlineStr">
         <is>
-          <t>1.88/100g</t>
+          <t>3.80/100g</t>
         </is>
       </c>
       <c r="I360" t="inlineStr">
@@ -25904,7 +25902,7 @@
       </c>
       <c r="J360" t="inlineStr">
         <is>
-          <t>1.88</t>
+          <t>3.80</t>
         </is>
       </c>
       <c r="K360" t="inlineStr">
@@ -25914,56 +25912,56 @@
       </c>
       <c r="L360" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'suess']</t>
         </is>
       </c>
       <c r="M360" t="inlineStr">
         <is>
-          <t>Mezeast Chicken Shawarma Wrap Kit 6.95 Schweizer Franken</t>
+          <t>Dar-Vida Choco au lait 1.75 Schweizer Franken</t>
         </is>
       </c>
       <c r="N360" t="inlineStr"/>
       <c r="O360" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>6989654</t>
+          <t>6775942</t>
         </is>
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>Bauckhof Brownies Backmischung</t>
+          <t>Mezeast Chicken Shawarma Wrap Kit</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/bauckhof-brownies-backmischung/p/6989654</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/mezeast-chicken-shawarma-wrap-kit/p/6775942</t>
         </is>
       </c>
       <c r="D361" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E361" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="F361" t="inlineStr">
         <is>
-          <t>Bauckhof</t>
+          <t>MEZEAST</t>
         </is>
       </c>
       <c r="G361" t="inlineStr">
         <is>
-          <t>4.50</t>
+          <t>6.95</t>
         </is>
       </c>
       <c r="H361" t="inlineStr">
         <is>
-          <t>1.13/100g</t>
+          <t>1.88/100g</t>
         </is>
       </c>
       <c r="I361" t="inlineStr">
@@ -25973,7 +25971,7 @@
       </c>
       <c r="J361" t="inlineStr">
         <is>
-          <t>1.13</t>
+          <t>1.88</t>
         </is>
       </c>
       <c r="K361" t="inlineStr">
@@ -25983,60 +25981,56 @@
       </c>
       <c r="L361" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
         </is>
       </c>
       <c r="M361" t="inlineStr">
         <is>
-          <t>Bauckhof Brownies Backmischung 4.50 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N361" t="inlineStr">
-        <is>
-          <t>['vegan', 'vegetarian', 'gluten_free']</t>
-        </is>
-      </c>
+          <t>Mezeast Chicken Shawarma Wrap Kit 6.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N361" t="inlineStr"/>
       <c r="O361" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>5803198</t>
+          <t>6989654</t>
         </is>
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>Schär Guezli Orangino Soft Cake glutenfrei</t>
+          <t>Bauckhof Brownies Backmischung</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/schaer-guezli-orangino-soft-cake-glutenfrei/p/5803198</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/bauckhof-brownies-backmischung/p/6989654</t>
         </is>
       </c>
       <c r="D362" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E362" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="F362" t="inlineStr">
         <is>
-          <t>Schär</t>
+          <t>Bauckhof</t>
         </is>
       </c>
       <c r="G362" t="inlineStr">
         <is>
-          <t>2.80</t>
+          <t>4.50</t>
         </is>
       </c>
       <c r="H362" t="inlineStr">
         <is>
-          <t>1.87/100g</t>
+          <t>1.13/100g</t>
         </is>
       </c>
       <c r="I362" t="inlineStr">
@@ -26046,7 +26040,7 @@
       </c>
       <c r="J362" t="inlineStr">
         <is>
-          <t>1.87</t>
+          <t>1.13</t>
         </is>
       </c>
       <c r="K362" t="inlineStr">
@@ -26061,55 +26055,55 @@
       </c>
       <c r="M362" t="inlineStr">
         <is>
-          <t>Schär Guezli Orangino Soft Cake glutenfrei 2.80 Schweizer Franken</t>
+          <t>Bauckhof Brownies Backmischung 4.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="N362" t="inlineStr">
         <is>
-          <t>['gluten_free']</t>
+          <t>['vegan', 'vegetarian', 'gluten_free']</t>
         </is>
       </c>
       <c r="O362" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>6609039</t>
+          <t>5803198</t>
         </is>
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>Vergani Panettone vegan</t>
+          <t>Schär Guezli Orangino Soft Cake glutenfrei</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/vergani-panettone-vegan/p/6609039</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/schaer-guezli-orangino-soft-cake-glutenfrei/p/5803198</t>
         </is>
       </c>
       <c r="D363" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E363" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F363" t="inlineStr">
         <is>
-          <t>Vergani</t>
+          <t>Schär</t>
         </is>
       </c>
       <c r="G363" t="inlineStr">
         <is>
-          <t>15.95</t>
+          <t>2.80</t>
         </is>
       </c>
       <c r="H363" t="inlineStr">
         <is>
-          <t>2.13/100g</t>
+          <t>1.87/100g</t>
         </is>
       </c>
       <c r="I363" t="inlineStr">
@@ -26119,7 +26113,7 @@
       </c>
       <c r="J363" t="inlineStr">
         <is>
-          <t>2.13</t>
+          <t>1.87</t>
         </is>
       </c>
       <c r="K363" t="inlineStr">
@@ -26129,60 +26123,60 @@
       </c>
       <c r="L363" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M363" t="inlineStr">
         <is>
-          <t>Vergani Panettone vegan 15.95 Schweizer Franken</t>
+          <t>Schär Guezli Orangino Soft Cake glutenfrei 2.80 Schweizer Franken</t>
         </is>
       </c>
       <c r="N363" t="inlineStr">
         <is>
-          <t>['vegan', 'vegetarian']</t>
+          <t>['gluten_free']</t>
         </is>
       </c>
       <c r="O363" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>6151984</t>
+          <t>6609039</t>
         </is>
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>Schnitzer Bio Frischback-Brot Chia &amp;amp; Quinoa glutenfrei</t>
+          <t>Vergani Panettone vegan</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/schnitzer-bio-frischback-brot-chia-quinoa-glutenfrei/p/6151984</t>
+          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/vergani-panettone-vegan/p/6609039</t>
         </is>
       </c>
       <c r="D364" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E364" t="n">
         <v>5</v>
       </c>
       <c r="F364" t="inlineStr">
         <is>
-          <t>Schnitzer</t>
+          <t>Vergani</t>
         </is>
       </c>
       <c r="G364" t="inlineStr">
         <is>
-          <t>7.20</t>
+          <t>15.95</t>
         </is>
       </c>
       <c r="H364" t="inlineStr">
         <is>
-          <t>1.44/100g</t>
+          <t>2.13/100g</t>
         </is>
       </c>
       <c r="I364" t="inlineStr">
@@ -26192,7 +26186,7 @@
       </c>
       <c r="J364" t="inlineStr">
         <is>
-          <t>1.44</t>
+          <t>2.13</t>
         </is>
       </c>
       <c r="K364" t="inlineStr">
@@ -26202,42 +26196,46 @@
       </c>
       <c r="L364" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'frischback-brot']</t>
+          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
         </is>
       </c>
       <c r="M364" t="inlineStr">
         <is>
-          <t>Schnitzer Bio Frischback-Brot Chia &amp;amp; Quinoa glutenfrei 7.20 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N364" t="inlineStr"/>
+          <t>Vergani Panettone vegan 15.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N364" t="inlineStr">
+        <is>
+          <t>['vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O364" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>6603471</t>
+          <t>6151984</t>
         </is>
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>Schnitzer Bio Baguette Rustic glutenfrei</t>
+          <t>Schnitzer Bio Frischback-Brot Chia &amp;amp; Quinoa glutenfrei</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/schnitzer-bio-baguette-rustic-glutenfrei/p/6603471</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/schnitzer-bio-frischback-brot-chia-quinoa-glutenfrei/p/6151984</t>
         </is>
       </c>
       <c r="D365" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E365" t="n">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="F365" t="inlineStr">
         <is>
@@ -26246,12 +26244,12 @@
       </c>
       <c r="G365" t="inlineStr">
         <is>
-          <t>5.60</t>
+          <t>7.20</t>
         </is>
       </c>
       <c r="H365" t="inlineStr">
         <is>
-          <t>1.75/100g</t>
+          <t>1.44/100g</t>
         </is>
       </c>
       <c r="I365" t="inlineStr">
@@ -26261,7 +26259,7 @@
       </c>
       <c r="J365" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>1.44</t>
         </is>
       </c>
       <c r="K365" t="inlineStr">
@@ -26276,51 +26274,51 @@
       </c>
       <c r="M365" t="inlineStr">
         <is>
-          <t>Schnitzer Bio Baguette Rustic glutenfrei 5.60 Schweizer Franken</t>
+          <t>Schnitzer Bio Frischback-Brot Chia &amp;amp; Quinoa glutenfrei 7.20 Schweizer Franken</t>
         </is>
       </c>
       <c r="N365" t="inlineStr"/>
       <c r="O365" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>5962343</t>
+          <t>6603471</t>
         </is>
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>Veganz Bliss Ball Coconut 42G 3x  42g</t>
+          <t>Schnitzer Bio Baguette Rustic glutenfrei</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/veganz-bliss-ball-coconut-42g/p/5962343</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/schnitzer-bio-baguette-rustic-glutenfrei/p/6603471</t>
         </is>
       </c>
       <c r="D366" t="n">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="E366" t="n">
         <v>3.5</v>
       </c>
       <c r="F366" t="inlineStr">
         <is>
-          <t>Veganz</t>
+          <t>Schnitzer</t>
         </is>
       </c>
       <c r="G366" t="inlineStr">
         <is>
-          <t>6.90</t>
+          <t>5.60</t>
         </is>
       </c>
       <c r="H366" t="inlineStr">
         <is>
-          <t>5.48/100g</t>
+          <t>1.75/100g</t>
         </is>
       </c>
       <c r="I366" t="inlineStr">
@@ -26330,7 +26328,7 @@
       </c>
       <c r="J366" t="inlineStr">
         <is>
-          <t>5.48</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="K366" t="inlineStr">
@@ -26340,58 +26338,56 @@
       </c>
       <c r="L366" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'frischback-brot']</t>
         </is>
       </c>
       <c r="M366" t="inlineStr">
         <is>
-          <t>Veganz Bliss Ball Coconut 42G 3x  42g 6.90 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N366" t="inlineStr">
-        <is>
-          <t>['vegan', 'vegetarian', 'gluten_free']</t>
-        </is>
-      </c>
+          <t>Schnitzer Bio Baguette Rustic glutenfrei 5.60 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N366" t="inlineStr"/>
       <c r="O366" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>4005123</t>
+          <t>5962343</t>
         </is>
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>Bonne Maman Muffins Schokolade 16 Stück</t>
+          <t>Veganz Bliss Ball Coconut 42G 3x  42g</t>
         </is>
       </c>
       <c r="C367" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/bonne-maman-muffins-schokolade-16-stueck/p/4005123</t>
-        </is>
-      </c>
-      <c r="D367" t="inlineStr"/>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/veganz-bliss-ball-coconut-42g/p/5962343</t>
+        </is>
+      </c>
+      <c r="D367" t="n">
+        <v>18</v>
+      </c>
       <c r="E367" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="F367" t="inlineStr">
         <is>
-          <t>Bonne Maman</t>
+          <t>Veganz</t>
         </is>
       </c>
       <c r="G367" t="inlineStr">
         <is>
-          <t>5.20</t>
+          <t>6.90</t>
         </is>
       </c>
       <c r="H367" t="inlineStr">
         <is>
-          <t>2.21/100g</t>
+          <t>5.48/100g</t>
         </is>
       </c>
       <c r="I367" t="inlineStr">
@@ -26401,7 +26397,7 @@
       </c>
       <c r="J367" t="inlineStr">
         <is>
-          <t>2.21</t>
+          <t>5.48</t>
         </is>
       </c>
       <c r="K367" t="inlineStr">
@@ -26416,51 +26412,53 @@
       </c>
       <c r="M367" t="inlineStr">
         <is>
-          <t>Bonne Maman Muffins Schokolade 16 Stück 5.20 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N367" t="inlineStr"/>
+          <t>Veganz Bliss Ball Coconut 42G 3x  42g 6.90 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N367" t="inlineStr">
+        <is>
+          <t>['vegan', 'vegetarian', 'gluten_free']</t>
+        </is>
+      </c>
       <c r="O367" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>6575281</t>
+          <t>4005123</t>
         </is>
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>Old El Paso Fajita Kit Gluten Free</t>
+          <t>Bonne Maman Muffins Schokolade 16 Stück</t>
         </is>
       </c>
       <c r="C368" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-fajita-kit-gluten-free/p/6575281</t>
-        </is>
-      </c>
-      <c r="D368" t="n">
-        <v>4</v>
-      </c>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/bonne-maman-muffins-schokolade-16-stueck/p/4005123</t>
+        </is>
+      </c>
+      <c r="D368" t="inlineStr"/>
       <c r="E368" t="n">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="F368" t="inlineStr">
         <is>
-          <t>Old el Paso</t>
+          <t>Bonne Maman</t>
         </is>
       </c>
       <c r="G368" t="inlineStr">
         <is>
-          <t>7.70</t>
+          <t>5.20</t>
         </is>
       </c>
       <c r="H368" t="inlineStr">
         <is>
-          <t>1.67/100g</t>
+          <t>2.21/100g</t>
         </is>
       </c>
       <c r="I368" t="inlineStr">
@@ -26470,7 +26468,7 @@
       </c>
       <c r="J368" t="inlineStr">
         <is>
-          <t>1.67</t>
+          <t>2.21</t>
         </is>
       </c>
       <c r="K368" t="inlineStr">
@@ -26480,58 +26478,56 @@
       </c>
       <c r="L368" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M368" t="inlineStr">
         <is>
-          <t>Old El Paso Fajita Kit Gluten Free 7.70 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N368" t="inlineStr">
-        <is>
-          <t>['gluten_free']</t>
-        </is>
-      </c>
+          <t>Bonne Maman Muffins Schokolade 16 Stück 5.20 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N368" t="inlineStr"/>
       <c r="O368" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>6857774</t>
+          <t>6575281</t>
         </is>
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>Dar-Vida Nature</t>
+          <t>Old El Paso Fajita Kit Gluten Free</t>
         </is>
       </c>
       <c r="C369" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/dar-vida-nature/p/6857774</t>
-        </is>
-      </c>
-      <c r="D369" t="inlineStr"/>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-fajita-kit-gluten-free/p/6575281</t>
+        </is>
+      </c>
+      <c r="D369" t="n">
+        <v>4</v>
+      </c>
       <c r="E369" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="F369" t="inlineStr">
         <is>
-          <t>DAR-VIDA</t>
+          <t>Old el Paso</t>
         </is>
       </c>
       <c r="G369" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>7.70</t>
         </is>
       </c>
       <c r="H369" t="inlineStr">
         <is>
-          <t>2.40/100g</t>
+          <t>1.67/100g</t>
         </is>
       </c>
       <c r="I369" t="inlineStr">
@@ -26541,7 +26537,7 @@
       </c>
       <c r="J369" t="inlineStr">
         <is>
-          <t>2.40</t>
+          <t>1.67</t>
         </is>
       </c>
       <c r="K369" t="inlineStr">
@@ -26551,60 +26547,58 @@
       </c>
       <c r="L369" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
         </is>
       </c>
       <c r="M369" t="inlineStr">
         <is>
-          <t>Dar-Vida Nature 1.00 Schweizer Franken</t>
+          <t>Old El Paso Fajita Kit Gluten Free 7.70 Schweizer Franken</t>
         </is>
       </c>
       <c r="N369" t="inlineStr">
         <is>
-          <t>['vegan', 'vegetarian']</t>
+          <t>['gluten_free']</t>
         </is>
       </c>
       <c r="O369" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>5722124</t>
+          <t>6857774</t>
         </is>
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>Buitoni Pizzateig Glutenfrei &amp;amp; Ohne Lactose Rund Ausgewallt Ø25cm</t>
+          <t>Dar-Vida Nature</t>
         </is>
       </c>
       <c r="C370" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/pizzateig-pastateig/buitoni-pizzateig-glutenfrei-ohne-lactose-rund-ausgewallt-25cm/p/5722124</t>
-        </is>
-      </c>
-      <c r="D370" t="n">
-        <v>34</v>
-      </c>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/dar-vida-nature/p/6857774</t>
+        </is>
+      </c>
+      <c r="D370" t="inlineStr"/>
       <c r="E370" t="n">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="F370" t="inlineStr">
         <is>
-          <t>Buitoni</t>
+          <t>DAR-VIDA</t>
         </is>
       </c>
       <c r="G370" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="H370" t="inlineStr">
         <is>
-          <t>1.90/100g</t>
+          <t>2.40/100g</t>
         </is>
       </c>
       <c r="I370" t="inlineStr">
@@ -26614,7 +26608,7 @@
       </c>
       <c r="J370" t="inlineStr">
         <is>
-          <t>1.90</t>
+          <t>2.40</t>
         </is>
       </c>
       <c r="K370" t="inlineStr">
@@ -26624,60 +26618,60 @@
       </c>
       <c r="L370" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'pizzateig-pastateig']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
         </is>
       </c>
       <c r="M370" t="inlineStr">
         <is>
-          <t>Buitoni Pizzateig Glutenfrei &amp;amp; Ohne Lactose Rund Ausgewallt Ø25cm 4.95 Schweizer Franken</t>
+          <t>Dar-Vida Nature 1.00 Schweizer Franken</t>
         </is>
       </c>
       <c r="N370" t="inlineStr">
         <is>
-          <t>['chilled', 'gluten_free']</t>
+          <t>['vegan', 'vegetarian']</t>
         </is>
       </c>
       <c r="O370" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>5803251</t>
+          <t>5722124</t>
         </is>
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>Schär Pausa Ciok Snack glutenfrei</t>
+          <t>Buitoni Pizzateig Glutenfrei &amp;amp; Ohne Lactose Rund Ausgewallt Ø25cm</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/schaer-pausa-ciok-snack-glutenfrei/p/5803251</t>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/pizzateig-pastateig/buitoni-pizzateig-glutenfrei-ohne-lactose-rund-ausgewallt-25cm/p/5722124</t>
         </is>
       </c>
       <c r="D371" t="n">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="E371" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="F371" t="inlineStr">
         <is>
-          <t>Schär</t>
+          <t>Buitoni</t>
         </is>
       </c>
       <c r="G371" t="inlineStr">
         <is>
-          <t>6.95</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="H371" t="inlineStr">
         <is>
-          <t>1.99/100g</t>
+          <t>1.90/100g</t>
         </is>
       </c>
       <c r="I371" t="inlineStr">
@@ -26687,7 +26681,7 @@
       </c>
       <c r="J371" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>1.90</t>
         </is>
       </c>
       <c r="K371" t="inlineStr">
@@ -26697,60 +26691,60 @@
       </c>
       <c r="L371" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'pizzateig-pastateig']</t>
         </is>
       </c>
       <c r="M371" t="inlineStr">
         <is>
-          <t>Schär Pausa Ciok Snack glutenfrei 6.95 Schweizer Franken</t>
+          <t>Buitoni Pizzateig Glutenfrei &amp;amp; Ohne Lactose Rund Ausgewallt Ø25cm 4.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N371" t="inlineStr">
         <is>
-          <t>['gluten_free']</t>
+          <t>['chilled', 'gluten_free']</t>
         </is>
       </c>
       <c r="O371" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>5722126</t>
+          <t>5803251</t>
         </is>
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>Leisi Kuchenteig rund ausgewallt Ø32cm glutenfrei</t>
+          <t>Schär Pausa Ciok Snack glutenfrei</t>
         </is>
       </c>
       <c r="C372" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/kuchenteig/leisi-kuchenteig-rund-ausgewallt-32cm-glutenfrei/p/5722126</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/schaer-pausa-ciok-snack-glutenfrei/p/5803251</t>
         </is>
       </c>
       <c r="D372" t="n">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E372" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F372" t="inlineStr">
         <is>
-          <t>Leisi</t>
+          <t>Schär</t>
         </is>
       </c>
       <c r="G372" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>6.95</t>
         </is>
       </c>
       <c r="H372" t="inlineStr">
         <is>
-          <t>2.15/100g</t>
+          <t>1.99/100g</t>
         </is>
       </c>
       <c r="I372" t="inlineStr">
@@ -26760,7 +26754,7 @@
       </c>
       <c r="J372" t="inlineStr">
         <is>
-          <t>2.15</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="K372" t="inlineStr">
@@ -26770,60 +26764,60 @@
       </c>
       <c r="L372" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'kuchenteig']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M372" t="inlineStr">
         <is>
-          <t>Leisi Kuchenteig rund ausgewallt Ø32cm glutenfrei - Online kein Bestand 4.95 Schweizer Franken</t>
+          <t>Schär Pausa Ciok Snack glutenfrei 6.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N372" t="inlineStr">
         <is>
-          <t>['chilled', 'vegan', 'vegetarian', 'lactose_free']</t>
+          <t>['gluten_free']</t>
         </is>
       </c>
       <c r="O372" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>4145231</t>
+          <t>5722126</t>
         </is>
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>Fairtrade Reiswaffeln mit Bitterschokolade 2x45g</t>
+          <t>Leisi Kuchenteig rund ausgewallt Ø32cm glutenfrei</t>
         </is>
       </c>
       <c r="C373" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/reiswaffeln/fairtrade-reiswaffeln-mit-bitterschokolade-2x45g/p/4145231</t>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/kuchenteig/leisi-kuchenteig-rund-ausgewallt-32cm-glutenfrei/p/5722126</t>
         </is>
       </c>
       <c r="D373" t="n">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="E373" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="F373" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Leisi</t>
         </is>
       </c>
       <c r="G373" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="H373" t="inlineStr">
         <is>
-          <t>3.28/100g</t>
+          <t>2.15/100g</t>
         </is>
       </c>
       <c r="I373" t="inlineStr">
@@ -26833,7 +26827,7 @@
       </c>
       <c r="J373" t="inlineStr">
         <is>
-          <t>3.28</t>
+          <t>2.15</t>
         </is>
       </c>
       <c r="K373" t="inlineStr">
@@ -26843,46 +26837,46 @@
       </c>
       <c r="L373" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'reiswaffeln']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'kuchenteig']</t>
         </is>
       </c>
       <c r="M373" t="inlineStr">
         <is>
-          <t>Fairtrade Reiswaffeln mit Bitterschokolade 2x45g - Online kein Bestand 2.95 Schweizer Franken</t>
+          <t>Leisi Kuchenteig rund ausgewallt Ø32cm glutenfrei 4.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N373" t="inlineStr">
         <is>
-          <t>['gluten_free']</t>
+          <t>['chilled', 'vegan', 'vegetarian', 'lactose_free']</t>
         </is>
       </c>
       <c r="O373" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>6877281</t>
+          <t>4145231</t>
         </is>
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>Nussweggli</t>
+          <t>Fairtrade Reiswaffeln mit Bitterschokolade 2x45g</t>
         </is>
       </c>
       <c r="C374" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/nussweggli/p/6877281</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/reiswaffeln/fairtrade-reiswaffeln-mit-bitterschokolade-2x45g/p/4145231</t>
         </is>
       </c>
       <c r="D374" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E374" t="n">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="F374" t="inlineStr">
         <is>
@@ -26891,12 +26885,12 @@
       </c>
       <c r="G374" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H374" t="inlineStr">
         <is>
-          <t>1.65/100g</t>
+          <t>3.28/100g</t>
         </is>
       </c>
       <c r="I374" t="inlineStr">
@@ -26906,7 +26900,7 @@
       </c>
       <c r="J374" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>3.28</t>
         </is>
       </c>
       <c r="K374" t="inlineStr">
@@ -26916,56 +26910,60 @@
       </c>
       <c r="L374" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'reiswaffeln']</t>
         </is>
       </c>
       <c r="M374" t="inlineStr">
         <is>
-          <t>Nussweggli 4.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N374" t="inlineStr"/>
+          <t>Fairtrade Reiswaffeln mit Bitterschokolade 2x45g - Online kein Bestand 2.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N374" t="inlineStr">
+        <is>
+          <t>['gluten_free']</t>
+        </is>
+      </c>
       <c r="O374" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>4967215</t>
+          <t>6877281</t>
         </is>
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>Bonne Maman Madeleine 7 Stück</t>
+          <t>Nussweggli</t>
         </is>
       </c>
       <c r="C375" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/bonne-maman-madeleine-7-stueck/p/4967215</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/nussweggli/p/6877281</t>
         </is>
       </c>
       <c r="D375" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E375" t="n">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="F375" t="inlineStr">
         <is>
-          <t>Bonne Maman</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G375" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="H375" t="inlineStr">
         <is>
-          <t>2.26/100g</t>
+          <t>1.65/100g</t>
         </is>
       </c>
       <c r="I375" t="inlineStr">
@@ -26975,7 +26973,7 @@
       </c>
       <c r="J375" t="inlineStr">
         <is>
-          <t>2.26</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="K375" t="inlineStr">
@@ -26990,51 +26988,51 @@
       </c>
       <c r="M375" t="inlineStr">
         <is>
-          <t>Bonne Maman Madeleine 7 Stück 3.95 Schweizer Franken</t>
+          <t>Nussweggli 4.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N375" t="inlineStr"/>
       <c r="O375" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>5804223</t>
+          <t>4967215</t>
         </is>
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>Leisi Blätterteig glutenfrei rund ausgewallt Ø32cm</t>
+          <t>Bonne Maman Madeleine 7 Stück</t>
         </is>
       </c>
       <c r="C376" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/blaetterteig/leisi-blaetterteig-glutenfrei-rund-ausgewallt-32cm/p/5804223</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/bonne-maman-madeleine-7-stueck/p/4967215</t>
         </is>
       </c>
       <c r="D376" t="n">
-        <v>41</v>
+        <v>8</v>
       </c>
       <c r="E376" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="F376" t="inlineStr">
         <is>
-          <t>Leisi</t>
+          <t>Bonne Maman</t>
         </is>
       </c>
       <c r="G376" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="H376" t="inlineStr">
         <is>
-          <t>1.77/100g</t>
+          <t>2.26/100g</t>
         </is>
       </c>
       <c r="I376" t="inlineStr">
@@ -27044,7 +27042,7 @@
       </c>
       <c r="J376" t="inlineStr">
         <is>
-          <t>1.77</t>
+          <t>2.26</t>
         </is>
       </c>
       <c r="K376" t="inlineStr">
@@ -27054,60 +27052,56 @@
       </c>
       <c r="L376" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'blaetterteig']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M376" t="inlineStr">
         <is>
-          <t>Leisi Blätterteig glutenfrei rund ausgewallt Ø32cm - Online kein Bestand 4.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N376" t="inlineStr">
-        <is>
-          <t>['chilled']</t>
-        </is>
-      </c>
+          <t>Bonne Maman Madeleine 7 Stück 3.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N376" t="inlineStr"/>
       <c r="O376" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>6472912</t>
+          <t>5804223</t>
         </is>
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Appenzeller Bärli Biber</t>
+          <t>Leisi Blätterteig glutenfrei rund ausgewallt Ø32cm</t>
         </is>
       </c>
       <c r="C377" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/naturaplan-bio-appenzeller-baerli-biber/p/6472912</t>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/blaetterteig/leisi-blaetterteig-glutenfrei-rund-ausgewallt-32cm/p/5804223</t>
         </is>
       </c>
       <c r="D377" t="n">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="E377" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F377" t="inlineStr">
         <is>
-          <t>Bischofberger</t>
+          <t>Leisi</t>
         </is>
       </c>
       <c r="G377" t="inlineStr">
         <is>
-          <t>1.60</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="H377" t="inlineStr">
         <is>
-          <t>2.58/100g</t>
+          <t>1.77/100g</t>
         </is>
       </c>
       <c r="I377" t="inlineStr">
@@ -27117,7 +27111,7 @@
       </c>
       <c r="J377" t="inlineStr">
         <is>
-          <t>2.58</t>
+          <t>1.77</t>
         </is>
       </c>
       <c r="K377" t="inlineStr">
@@ -27127,60 +27121,60 @@
       </c>
       <c r="L377" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'blaetterteig']</t>
         </is>
       </c>
       <c r="M377" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Appenzeller Bärli Biber 1.60 Schweizer Franken</t>
+          <t>Leisi Blätterteig glutenfrei rund ausgewallt Ø32cm 4.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N377" t="inlineStr">
         <is>
-          <t>['vegetarian']</t>
+          <t>['chilled']</t>
         </is>
       </c>
       <c r="O377" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>6637490</t>
+          <t>6472912</t>
         </is>
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>Suter Pâté vaudois</t>
+          <t>Naturaplan Bio Appenzeller Bärli Biber</t>
         </is>
       </c>
       <c r="C378" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/suter-pate-vaudois/p/6637490</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/naturaplan-bio-appenzeller-baerli-biber/p/6472912</t>
         </is>
       </c>
       <c r="D378" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E378" t="n">
         <v>5</v>
       </c>
       <c r="F378" t="inlineStr">
         <is>
-          <t>Suter</t>
+          <t>Bischofberger</t>
         </is>
       </c>
       <c r="G378" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>1.60</t>
         </is>
       </c>
       <c r="H378" t="inlineStr">
         <is>
-          <t>3.59/100g</t>
+          <t>2.58/100g</t>
         </is>
       </c>
       <c r="I378" t="inlineStr">
@@ -27190,7 +27184,7 @@
       </c>
       <c r="J378" t="inlineStr">
         <is>
-          <t>3.59</t>
+          <t>2.58</t>
         </is>
       </c>
       <c r="K378" t="inlineStr">
@@ -27205,53 +27199,55 @@
       </c>
       <c r="M378" t="inlineStr">
         <is>
-          <t>Suter Pâté vaudois 3.95 Schweizer Franken</t>
+          <t>Naturaplan Bio Appenzeller Bärli Biber 1.60 Schweizer Franken</t>
         </is>
       </c>
       <c r="N378" t="inlineStr">
         <is>
-          <t>['chilled']</t>
+          <t>['vegetarian']</t>
         </is>
       </c>
       <c r="O378" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>6561501</t>
+          <t>6637490</t>
         </is>
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Appenzeller Bärli Biber 3x62g</t>
+          <t>Suter Pâté vaudois</t>
         </is>
       </c>
       <c r="C379" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/naturaplan-bio-appenzeller-baerli-biber-3x62g/p/6561501</t>
-        </is>
-      </c>
-      <c r="D379" t="inlineStr"/>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/suter-pate-vaudois/p/6637490</t>
+        </is>
+      </c>
+      <c r="D379" t="n">
+        <v>2</v>
+      </c>
       <c r="E379" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F379" t="inlineStr">
         <is>
-          <t>Bischofberger</t>
+          <t>Suter</t>
         </is>
       </c>
       <c r="G379" t="inlineStr">
         <is>
-          <t>4.80</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="H379" t="inlineStr">
         <is>
-          <t>2.58/100g</t>
+          <t>3.59/100g</t>
         </is>
       </c>
       <c r="I379" t="inlineStr">
@@ -27261,7 +27257,7 @@
       </c>
       <c r="J379" t="inlineStr">
         <is>
-          <t>2.58</t>
+          <t>3.59</t>
         </is>
       </c>
       <c r="K379" t="inlineStr">
@@ -27276,41 +27272,39 @@
       </c>
       <c r="M379" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Appenzeller Bärli Biber 3x62g 4.80 Schweizer Franken</t>
+          <t>Suter Pâté vaudois 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N379" t="inlineStr">
         <is>
-          <t>['vegetarian']</t>
+          <t>['chilled']</t>
         </is>
       </c>
       <c r="O379" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>6146680</t>
+          <t>6561501</t>
         </is>
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Bischofberger Biber Herzli 6x32g</t>
+          <t>Naturaplan Bio Appenzeller Bärli Biber 3x62g</t>
         </is>
       </c>
       <c r="C380" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/naturaplan-bio-bischofberger-biber-herzli-6x32g/p/6146680</t>
-        </is>
-      </c>
-      <c r="D380" t="n">
-        <v>1</v>
-      </c>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/naturaplan-bio-appenzeller-baerli-biber-3x62g/p/6561501</t>
+        </is>
+      </c>
+      <c r="D380" t="inlineStr"/>
       <c r="E380" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F380" t="inlineStr">
         <is>
@@ -27319,12 +27313,12 @@
       </c>
       <c r="G380" t="inlineStr">
         <is>
-          <t>5.50</t>
+          <t>4.80</t>
         </is>
       </c>
       <c r="H380" t="inlineStr">
         <is>
-          <t>2.86/100g</t>
+          <t>2.58/100g</t>
         </is>
       </c>
       <c r="I380" t="inlineStr">
@@ -27334,7 +27328,7 @@
       </c>
       <c r="J380" t="inlineStr">
         <is>
-          <t>2.86</t>
+          <t>2.58</t>
         </is>
       </c>
       <c r="K380" t="inlineStr">
@@ -27349,7 +27343,7 @@
       </c>
       <c r="M380" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Bischofberger Biber Herzli 6x32g 5.50 Schweizer Franken</t>
+          <t>Naturaplan Bio Appenzeller Bärli Biber 3x62g 4.80 Schweizer Franken</t>
         </is>
       </c>
       <c r="N380" t="inlineStr">
@@ -27359,45 +27353,45 @@
       </c>
       <c r="O380" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>6729401</t>
+          <t>6146680</t>
         </is>
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>Roland Sport Plus Nature</t>
+          <t>Naturaplan Bio Bischofberger Biber Herzli 6x32g</t>
         </is>
       </c>
       <c r="C381" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/roland-sport-plus-nature/p/6729401</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/naturaplan-bio-bischofberger-biber-herzli-6x32g/p/6146680</t>
         </is>
       </c>
       <c r="D381" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E381" t="n">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="F381" t="inlineStr">
         <is>
-          <t>Roland</t>
+          <t>Bischofberger</t>
         </is>
       </c>
       <c r="G381" t="inlineStr">
         <is>
-          <t>4.80</t>
+          <t>5.50</t>
         </is>
       </c>
       <c r="H381" t="inlineStr">
         <is>
-          <t>3.20/100g</t>
+          <t>2.86/100g</t>
         </is>
       </c>
       <c r="I381" t="inlineStr">
@@ -27407,7 +27401,7 @@
       </c>
       <c r="J381" t="inlineStr">
         <is>
-          <t>3.20</t>
+          <t>2.86</t>
         </is>
       </c>
       <c r="K381" t="inlineStr">
@@ -27417,56 +27411,60 @@
       </c>
       <c r="L381" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M381" t="inlineStr">
         <is>
-          <t>Roland Sport Plus Nature 4.80 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N381" t="inlineStr"/>
+          <t>Naturaplan Bio Bischofberger Biber Herzli 6x32g 5.50 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N381" t="inlineStr">
+        <is>
+          <t>['vegetarian']</t>
+        </is>
+      </c>
       <c r="O381" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>6828459</t>
+          <t>6729401</t>
         </is>
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>Aprikosenweggli</t>
+          <t>Roland Sport Plus Nature</t>
         </is>
       </c>
       <c r="C382" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/aprikosenweggli/p/6828459</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/roland-sport-plus-nature/p/6729401</t>
         </is>
       </c>
       <c r="D382" t="n">
         <v>3</v>
       </c>
       <c r="E382" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="F382" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Roland</t>
         </is>
       </c>
       <c r="G382" t="inlineStr">
         <is>
-          <t>5.50</t>
+          <t>4.80</t>
         </is>
       </c>
       <c r="H382" t="inlineStr">
         <is>
-          <t>1.83/100g</t>
+          <t>3.20/100g</t>
         </is>
       </c>
       <c r="I382" t="inlineStr">
@@ -27476,7 +27474,7 @@
       </c>
       <c r="J382" t="inlineStr">
         <is>
-          <t>1.83</t>
+          <t>3.20</t>
         </is>
       </c>
       <c r="K382" t="inlineStr">
@@ -27486,54 +27484,56 @@
       </c>
       <c r="L382" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
         </is>
       </c>
       <c r="M382" t="inlineStr">
         <is>
-          <t>Aprikosenweggli 5.50 Schweizer Franken</t>
+          <t>Roland Sport Plus Nature 4.80 Schweizer Franken</t>
         </is>
       </c>
       <c r="N382" t="inlineStr"/>
       <c r="O382" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>6783372</t>
+          <t>6828459</t>
         </is>
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>Old el Paso BBQ Pocket Kit</t>
+          <t>Aprikosenweggli</t>
         </is>
       </c>
       <c r="C383" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-bbq-pocket-kit/p/6783372</t>
-        </is>
-      </c>
-      <c r="D383" t="inlineStr"/>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/aprikosenweggli/p/6828459</t>
+        </is>
+      </c>
+      <c r="D383" t="n">
+        <v>3</v>
+      </c>
       <c r="E383" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F383" t="inlineStr">
         <is>
-          <t>Old el Paso</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G383" t="inlineStr">
         <is>
-          <t>7.70</t>
+          <t>5.50</t>
         </is>
       </c>
       <c r="H383" t="inlineStr">
         <is>
-          <t>2.03/100g</t>
+          <t>1.83/100g</t>
         </is>
       </c>
       <c r="I383" t="inlineStr">
@@ -27543,7 +27543,7 @@
       </c>
       <c r="J383" t="inlineStr">
         <is>
-          <t>2.03</t>
+          <t>1.83</t>
         </is>
       </c>
       <c r="K383" t="inlineStr">
@@ -27553,56 +27553,54 @@
       </c>
       <c r="L383" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M383" t="inlineStr">
         <is>
-          <t>Old el Paso BBQ Pocket Kit 7.70 Schweizer Franken</t>
+          <t>Aprikosenweggli 5.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="N383" t="inlineStr"/>
       <c r="O383" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>6151960</t>
+          <t>6783372</t>
         </is>
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>Schnitzer Bio Rustico und Amaranth glutenfrei</t>
+          <t>Old el Paso BBQ Pocket Kit</t>
         </is>
       </c>
       <c r="C384" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/schnitzer-bio-rustico-und-amaranth-glutenfrei/p/6151960</t>
-        </is>
-      </c>
-      <c r="D384" t="n">
-        <v>1</v>
-      </c>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-bbq-pocket-kit/p/6783372</t>
+        </is>
+      </c>
+      <c r="D384" t="inlineStr"/>
       <c r="E384" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F384" t="inlineStr">
         <is>
-          <t>Schnitzer</t>
+          <t>Old el Paso</t>
         </is>
       </c>
       <c r="G384" t="inlineStr">
         <is>
-          <t>6.90</t>
+          <t>7.70</t>
         </is>
       </c>
       <c r="H384" t="inlineStr">
         <is>
-          <t>2.16/100g</t>
+          <t>2.03/100g</t>
         </is>
       </c>
       <c r="I384" t="inlineStr">
@@ -27612,7 +27610,7 @@
       </c>
       <c r="J384" t="inlineStr">
         <is>
-          <t>2.16</t>
+          <t>2.03</t>
         </is>
       </c>
       <c r="K384" t="inlineStr">
@@ -27622,56 +27620,56 @@
       </c>
       <c r="L384" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'frischback-brot']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
         </is>
       </c>
       <c r="M384" t="inlineStr">
         <is>
-          <t>Schnitzer Bio Rustico und Amaranth glutenfrei 6.90 Schweizer Franken</t>
+          <t>Old el Paso BBQ Pocket Kit 7.70 Schweizer Franken</t>
         </is>
       </c>
       <c r="N384" t="inlineStr"/>
       <c r="O384" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>6284830</t>
+          <t>6151960</t>
         </is>
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>Leisi Kuchenteig eckig ausgewallt</t>
+          <t>Schnitzer Bio Rustico und Amaranth glutenfrei</t>
         </is>
       </c>
       <c r="C385" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/leisi-kuchenteig-eckig-ausgewallt/p/6284830</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/schnitzer-bio-rustico-und-amaranth-glutenfrei/p/6151960</t>
         </is>
       </c>
       <c r="D385" t="n">
         <v>1</v>
       </c>
       <c r="E385" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F385" t="inlineStr">
         <is>
-          <t>Leisi</t>
+          <t>Schnitzer</t>
         </is>
       </c>
       <c r="G385" t="inlineStr">
         <is>
-          <t>5.40</t>
+          <t>6.90</t>
         </is>
       </c>
       <c r="H385" t="inlineStr">
         <is>
-          <t>0.98/100g</t>
+          <t>2.16/100g</t>
         </is>
       </c>
       <c r="I385" t="inlineStr">
@@ -27681,7 +27679,7 @@
       </c>
       <c r="J385" t="inlineStr">
         <is>
-          <t>0.98</t>
+          <t>2.16</t>
         </is>
       </c>
       <c r="K385" t="inlineStr">
@@ -27691,58 +27689,56 @@
       </c>
       <c r="L385" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'frischback-brot']</t>
         </is>
       </c>
       <c r="M385" t="inlineStr">
         <is>
-          <t>Leisi Kuchenteig eckig ausgewallt 5.40 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N385" t="inlineStr">
-        <is>
-          <t>['chilled']</t>
-        </is>
-      </c>
+          <t>Schnitzer Bio Rustico und Amaranth glutenfrei 6.90 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N385" t="inlineStr"/>
       <c r="O385" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>7091314</t>
+          <t>6284830</t>
         </is>
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>High Protein Cräcker BBQ</t>
+          <t>Leisi Kuchenteig eckig ausgewallt</t>
         </is>
       </c>
       <c r="C386" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/high-protein-craecker-bbq/p/7091314</t>
-        </is>
-      </c>
-      <c r="D386" t="inlineStr"/>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/leisi-kuchenteig-eckig-ausgewallt/p/6284830</t>
+        </is>
+      </c>
+      <c r="D386" t="n">
+        <v>1</v>
+      </c>
       <c r="E386" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F386" t="inlineStr">
         <is>
-          <t>Layenberger</t>
+          <t>Leisi</t>
         </is>
       </c>
       <c r="G386" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>5.40</t>
         </is>
       </c>
       <c r="H386" t="inlineStr">
         <is>
-          <t>4.80/100g</t>
+          <t>0.98/100g</t>
         </is>
       </c>
       <c r="I386" t="inlineStr">
@@ -27752,7 +27748,7 @@
       </c>
       <c r="J386" t="inlineStr">
         <is>
-          <t>4.80</t>
+          <t>0.98</t>
         </is>
       </c>
       <c r="K386" t="inlineStr">
@@ -27762,42 +27758,44 @@
       </c>
       <c r="L386" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden']</t>
         </is>
       </c>
       <c r="M386" t="inlineStr">
         <is>
-          <t>High Protein Cräcker BBQ 3.60 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N386" t="inlineStr"/>
+          <t>Leisi Kuchenteig eckig ausgewallt 5.40 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N386" t="inlineStr">
+        <is>
+          <t>['chilled']</t>
+        </is>
+      </c>
       <c r="O386" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>7091313</t>
+          <t>7091314</t>
         </is>
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>High Protein Cräcker Cheese &amp;amp; Onion</t>
+          <t>High Protein Cräcker BBQ</t>
         </is>
       </c>
       <c r="C387" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/high-protein-craecker-cheese-onion/p/7091313</t>
-        </is>
-      </c>
-      <c r="D387" t="n">
-        <v>1</v>
-      </c>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/high-protein-craecker-bbq/p/7091314</t>
+        </is>
+      </c>
+      <c r="D387" t="inlineStr"/>
       <c r="E387" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F387" t="inlineStr">
         <is>
@@ -27836,49 +27834,51 @@
       </c>
       <c r="M387" t="inlineStr">
         <is>
-          <t>High Protein Cräcker Cheese &amp;amp; Onion 3.60 Schweizer Franken</t>
+          <t>High Protein Cräcker BBQ 3.60 Schweizer Franken</t>
         </is>
       </c>
       <c r="N387" t="inlineStr"/>
       <c r="O387" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>6981861</t>
+          <t>7091313</t>
         </is>
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>Sapori d'Italia Panettini Croccantini</t>
+          <t>High Protein Cräcker Cheese &amp;amp; Onion</t>
         </is>
       </c>
       <c r="C388" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/sapori-d-italia-panettini-croccantini/p/6981861</t>
-        </is>
-      </c>
-      <c r="D388" t="inlineStr"/>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/high-protein-craecker-cheese-onion/p/7091313</t>
+        </is>
+      </c>
+      <c r="D388" t="n">
+        <v>1</v>
+      </c>
       <c r="E388" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F388" t="inlineStr">
         <is>
-          <t>Sapori d'Italia</t>
+          <t>Layenberger</t>
         </is>
       </c>
       <c r="G388" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="H388" t="inlineStr">
         <is>
-          <t>1.47/100g</t>
+          <t>4.80/100g</t>
         </is>
       </c>
       <c r="I388" t="inlineStr">
@@ -27888,7 +27888,7 @@
       </c>
       <c r="J388" t="inlineStr">
         <is>
-          <t>1.47</t>
+          <t>4.80</t>
         </is>
       </c>
       <c r="K388" t="inlineStr">
@@ -27898,35 +27898,35 @@
       </c>
       <c r="L388" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
         </is>
       </c>
       <c r="M388" t="inlineStr">
         <is>
-          <t>Sapori d'Italia Panettini Croccantini 3.30 Schweizer Franken</t>
+          <t>High Protein Cräcker Cheese &amp;amp; Onion 3.60 Schweizer Franken</t>
         </is>
       </c>
       <c r="N388" t="inlineStr"/>
       <c r="O388" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>7016451</t>
+          <t>6981861</t>
         </is>
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>Schenkeli 7x30g</t>
+          <t>Sapori d'Italia Panettini Croccantini</t>
         </is>
       </c>
       <c r="C389" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/schenkeli-7x30g/p/7016451</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/sapori-d-italia-panettini-croccantini/p/6981861</t>
         </is>
       </c>
       <c r="D389" t="inlineStr"/>
@@ -27935,17 +27935,17 @@
       </c>
       <c r="F389" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Sapori d'Italia</t>
         </is>
       </c>
       <c r="G389" t="inlineStr">
         <is>
-          <t>2.60</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="H389" t="inlineStr">
         <is>
-          <t>1.24/100g</t>
+          <t>1.47/100g</t>
         </is>
       </c>
       <c r="I389" t="inlineStr">
@@ -27955,7 +27955,7 @@
       </c>
       <c r="J389" t="inlineStr">
         <is>
-          <t>1.24</t>
+          <t>1.47</t>
         </is>
       </c>
       <c r="K389" t="inlineStr">
@@ -27965,56 +27965,54 @@
       </c>
       <c r="L389" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
         </is>
       </c>
       <c r="M389" t="inlineStr">
         <is>
-          <t>Schenkeli 7x30g 2.60 Schweizer Franken</t>
+          <t>Sapori d'Italia Panettini Croccantini 3.30 Schweizer Franken</t>
         </is>
       </c>
       <c r="N389" t="inlineStr"/>
       <c r="O389" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>3040290</t>
+          <t>7016451</t>
         </is>
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>Heumann Mazzen-Schnitten Koscher</t>
+          <t>Schenkeli 7x30g</t>
         </is>
       </c>
       <c r="C390" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/heumann-mazzen-schnitten-koscher/p/3040290</t>
-        </is>
-      </c>
-      <c r="D390" t="n">
-        <v>2</v>
-      </c>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/schenkeli-7x30g/p/7016451</t>
+        </is>
+      </c>
+      <c r="D390" t="inlineStr"/>
       <c r="E390" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F390" t="inlineStr">
         <is>
-          <t>Heumann</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G390" t="inlineStr">
         <is>
-          <t>7.25</t>
+          <t>2.60</t>
         </is>
       </c>
       <c r="H390" t="inlineStr">
         <is>
-          <t>1.61/100g</t>
+          <t>1.24/100g</t>
         </is>
       </c>
       <c r="I390" t="inlineStr">
@@ -28024,7 +28022,7 @@
       </c>
       <c r="J390" t="inlineStr">
         <is>
-          <t>1.61</t>
+          <t>1.24</t>
         </is>
       </c>
       <c r="K390" t="inlineStr">
@@ -28034,56 +28032,56 @@
       </c>
       <c r="L390" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M390" t="inlineStr">
         <is>
-          <t>Heumann Mazzen-Schnitten Koscher 7.25 Schweizer Franken</t>
+          <t>Schenkeli 7x30g 2.60 Schweizer Franken</t>
         </is>
       </c>
       <c r="N390" t="inlineStr"/>
       <c r="O390" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>6775928</t>
+          <t>3040290</t>
         </is>
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>Mezeast Falafel Wrap Kit</t>
+          <t>Heumann Mazzen-Schnitten Koscher</t>
         </is>
       </c>
       <c r="C391" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/mezeast-falafel-wrap-kit/p/6775928</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/heumann-mazzen-schnitten-koscher/p/3040290</t>
         </is>
       </c>
       <c r="D391" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E391" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F391" t="inlineStr">
         <is>
-          <t>MEZEAST</t>
+          <t>Heumann</t>
         </is>
       </c>
       <c r="G391" t="inlineStr">
         <is>
-          <t>6.95</t>
+          <t>7.25</t>
         </is>
       </c>
       <c r="H391" t="inlineStr">
         <is>
-          <t>1.65/100g</t>
+          <t>1.61/100g</t>
         </is>
       </c>
       <c r="I391" t="inlineStr">
@@ -28093,7 +28091,7 @@
       </c>
       <c r="J391" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>1.61</t>
         </is>
       </c>
       <c r="K391" t="inlineStr">
@@ -28103,56 +28101,56 @@
       </c>
       <c r="L391" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
         </is>
       </c>
       <c r="M391" t="inlineStr">
         <is>
-          <t>Mezeast Falafel Wrap Kit 6.95 Schweizer Franken</t>
+          <t>Heumann Mazzen-Schnitten Koscher 7.25 Schweizer Franken</t>
         </is>
       </c>
       <c r="N391" t="inlineStr"/>
       <c r="O391" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>3152823</t>
+          <t>6775928</t>
         </is>
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>Osem Crackers Vollkorn Koscher</t>
+          <t>Mezeast Falafel Wrap Kit</t>
         </is>
       </c>
       <c r="C392" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/osem-crackers-vollkorn-koscher/p/3152823</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/mezeast-falafel-wrap-kit/p/6775928</t>
         </is>
       </c>
       <c r="D392" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E392" t="n">
         <v>4</v>
       </c>
       <c r="F392" t="inlineStr">
         <is>
-          <t>Osem</t>
+          <t>MEZEAST</t>
         </is>
       </c>
       <c r="G392" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>6.95</t>
         </is>
       </c>
       <c r="H392" t="inlineStr">
         <is>
-          <t>1.98/100g</t>
+          <t>1.65/100g</t>
         </is>
       </c>
       <c r="I392" t="inlineStr">
@@ -28162,7 +28160,7 @@
       </c>
       <c r="J392" t="inlineStr">
         <is>
-          <t>1.98</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="K392" t="inlineStr">
@@ -28172,49 +28170,51 @@
       </c>
       <c r="L392" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
         </is>
       </c>
       <c r="M392" t="inlineStr">
         <is>
-          <t>Osem Crackers Vollkorn Koscher 3.95 Schweizer Franken</t>
+          <t>Mezeast Falafel Wrap Kit 6.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N392" t="inlineStr"/>
       <c r="O392" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>3575044</t>
+          <t>3152823</t>
         </is>
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>Holyland Matzen Koscher</t>
+          <t>Osem Crackers Vollkorn Koscher</t>
         </is>
       </c>
       <c r="C393" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/holyland-matzen-koscher/p/3575044</t>
-        </is>
-      </c>
-      <c r="D393" t="inlineStr"/>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/osem-crackers-vollkorn-koscher/p/3152823</t>
+        </is>
+      </c>
+      <c r="D393" t="n">
+        <v>3</v>
+      </c>
       <c r="E393" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F393" t="inlineStr">
         <is>
-          <t>Telma</t>
+          <t>Osem</t>
         </is>
       </c>
       <c r="G393" t="inlineStr">
         <is>
-          <t>7.90</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="H393" t="inlineStr">
@@ -28239,56 +28239,54 @@
       </c>
       <c r="L393" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
         </is>
       </c>
       <c r="M393" t="inlineStr">
         <is>
-          <t>Holyland Matzen Koscher 7.90 Schweizer Franken</t>
+          <t>Osem Crackers Vollkorn Koscher 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N393" t="inlineStr"/>
       <c r="O393" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>3351706</t>
+          <t>3575044</t>
         </is>
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>Motta Panettone</t>
+          <t>Holyland Matzen Koscher</t>
         </is>
       </c>
       <c r="C394" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/motta-panettone/p/3351706</t>
-        </is>
-      </c>
-      <c r="D394" t="n">
-        <v>1</v>
-      </c>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/holyland-matzen-koscher/p/3575044</t>
+        </is>
+      </c>
+      <c r="D394" t="inlineStr"/>
       <c r="E394" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F394" t="inlineStr">
         <is>
-          <t>Motta</t>
+          <t>Telma</t>
         </is>
       </c>
       <c r="G394" t="inlineStr">
         <is>
-          <t>2.70</t>
+          <t>7.90</t>
         </is>
       </c>
       <c r="H394" t="inlineStr">
         <is>
-          <t>3.00/100g</t>
+          <t>1.98/100g</t>
         </is>
       </c>
       <c r="I394" t="inlineStr">
@@ -28298,7 +28296,7 @@
       </c>
       <c r="J394" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>1.98</t>
         </is>
       </c>
       <c r="K394" t="inlineStr">
@@ -28308,18 +28306,87 @@
       </c>
       <c r="L394" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
         </is>
       </c>
       <c r="M394" t="inlineStr">
         <is>
-          <t>Motta Panettone 2.70 Schweizer Franken</t>
+          <t>Holyland Matzen Koscher 7.90 Schweizer Franken</t>
         </is>
       </c>
       <c r="N394" t="inlineStr"/>
       <c r="O394" t="inlineStr">
         <is>
-          <t>2023-01-21 06:49:19</t>
+          <t>2023-01-21 12:54:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>3351706</t>
+        </is>
+      </c>
+      <c r="B395" t="inlineStr">
+        <is>
+          <t>Motta Panettone</t>
+        </is>
+      </c>
+      <c r="C395" t="inlineStr">
+        <is>
+          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/motta-panettone/p/3351706</t>
+        </is>
+      </c>
+      <c r="D395" t="n">
+        <v>1</v>
+      </c>
+      <c r="E395" t="n">
+        <v>5</v>
+      </c>
+      <c r="F395" t="inlineStr">
+        <is>
+          <t>Motta</t>
+        </is>
+      </c>
+      <c r="G395" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="H395" t="inlineStr">
+        <is>
+          <t>3.00/100g</t>
+        </is>
+      </c>
+      <c r="I395" t="inlineStr">
+        <is>
+          <t>Preis pro 100 Gramm</t>
+        </is>
+      </c>
+      <c r="J395" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="K395" t="inlineStr">
+        <is>
+          <t>100g</t>
+        </is>
+      </c>
+      <c r="L395" t="inlineStr">
+        <is>
+          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
+        </is>
+      </c>
+      <c r="M395" t="inlineStr">
+        <is>
+          <t>Motta Panettone 2.70 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N395" t="inlineStr"/>
+      <c r="O395" t="inlineStr">
+        <is>
+          <t>2023-01-21 12:54:53</t>
         </is>
       </c>
     </row>
